--- a/cppcalljs4/bin/DT_Currency_Config.xlsx
+++ b/cppcalljs4/bin/DT_Currency_Config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>testint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -73,14 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>teststring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,6 +78,42 @@
   </si>
   <si>
     <t>测试string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_int_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_string_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_int_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试int1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试int2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_string_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -440,64 +464,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -505,13 +547,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -521,11 +569,17 @@
       <c r="C6" s="1">
         <v>111</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>11111</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -535,11 +589,17 @@
       <c r="C7" s="1">
         <v>222</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1">
+        <v>22222</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -549,11 +609,17 @@
       <c r="C8" s="1">
         <v>333</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>33333</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A1048576">
